--- a/hw14/Test1.xlsx
+++ b/hw14/Test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="13295" windowHeight="7655"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -100,7 +100,7 @@
     <t>Checking of the Login button click</t>
   </si>
   <si>
-    <t>Logining</t>
+    <t>Authorization</t>
   </si>
   <si>
     <t>Click Login button</t>
@@ -118,10 +118,14 @@
     <t>LOG_2</t>
   </si>
   <si>
-    <t>Checking if the account is logged out when the Log out button is clicked</t>
+    <t>Logout check</t>
   </si>
   <si>
-    <t>Click on the Logout link</t>
+    <t>Logining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in 
+2.Click on the Logout </t>
   </si>
   <si>
     <t>The account is being logged out. The message Log out appears
@@ -176,9 +180,10 @@
     <t>Shopping Cart</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Add item to shopping cart
-2. Select another book to add to Shopping cart
-3. Add the selected book to the Shopping cart
+    <t xml:space="preserve">1. Log in
+2. Add item to shopping cart
+3. Select another book to add to Shopping cart
+4. Add the selected book to the Shopping cart
 </t>
   </si>
   <si>
@@ -210,10 +215,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -258,13 +263,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -280,16 +278,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,17 +306,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,16 +346,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,14 +366,6 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,7 +393,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,7 +458,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,31 +626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,139 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,6 +787,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -793,24 +828,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,32 +858,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,155 +871,164 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1369,8 +1374,8 @@
   </sheetPr>
   <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
@@ -1671,13 +1676,13 @@
         <v>34</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>31</v>
@@ -1689,54 +1694,54 @@
     </row>
     <row r="20" ht="71" customHeight="1" spans="1:8">
       <c r="A20" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="71" customHeight="1" spans="1:8">
       <c r="A21" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:8">
